--- a/Clase_4_datos/notas.xlsx
+++ b/Clase_4_datos/notas.xlsx
@@ -384,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -400,7 +400,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -408,7 +408,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -448,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -456,7 +456,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -464,7 +464,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -480,7 +480,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -488,7 +488,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -496,7 +496,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -504,7 +504,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -520,7 +520,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -528,7 +528,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -536,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -544,7 +544,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -552,7 +552,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -568,7 +568,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -576,7 +576,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -600,7 +600,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -608,7 +608,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -616,7 +616,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -640,7 +640,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -656,7 +656,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -664,7 +664,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -672,7 +672,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -680,7 +680,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -688,7 +688,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -704,7 +704,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -712,7 +712,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -720,7 +720,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -728,7 +728,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -736,7 +736,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -744,7 +744,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -752,7 +752,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -768,7 +768,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -776,7 +776,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -784,7 +784,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -792,7 +792,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -800,7 +800,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -808,7 +808,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -816,7 +816,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -824,7 +824,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -832,7 +832,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -848,7 +848,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -856,7 +856,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -872,7 +872,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -880,7 +880,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -888,7 +888,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -896,7 +896,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -904,7 +904,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -912,7 +912,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -920,7 +920,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -928,7 +928,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -936,7 +936,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -944,7 +944,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -952,7 +952,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -960,7 +960,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -968,7 +968,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -976,7 +976,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -984,7 +984,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -992,7 +992,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1000,7 +1000,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1016,7 +1016,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1024,7 +1024,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1032,7 +1032,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1040,7 +1040,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1048,7 +1048,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1056,7 +1056,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1064,7 +1064,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1072,7 +1072,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1496,7 +1496,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1528,7 +1528,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1552,7 +1552,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1616,7 +1616,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1632,7 +1632,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1640,7 +1640,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1648,7 +1648,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1656,7 +1656,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1664,7 +1664,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1680,7 +1680,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1688,7 +1688,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1696,7 +1696,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1712,7 +1712,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1720,7 +1720,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1728,7 +1728,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1736,7 +1736,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1752,7 +1752,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1760,7 +1760,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1768,7 +1768,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1776,7 +1776,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1784,7 +1784,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1792,7 +1792,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1800,7 +1800,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1808,7 +1808,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1816,7 +1816,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1824,7 +1824,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1832,7 +1832,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1840,7 +1840,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1848,7 +1848,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1864,7 +1864,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1872,7 +1872,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1880,7 +1880,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1888,7 +1888,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1896,7 +1896,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1904,7 +1904,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1912,7 +1912,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1920,7 +1920,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1928,7 +1928,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1936,7 +1936,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1952,7 +1952,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1960,7 +1960,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1968,7 +1968,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1984,7 +1984,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -1992,7 +1992,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2000,7 +2000,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2008,7 +2008,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2016,7 +2016,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2024,7 +2024,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2032,7 +2032,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2040,7 +2040,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2048,7 +2048,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2056,7 +2056,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2064,7 +2064,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2072,7 +2072,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2080,7 +2080,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2088,7 +2088,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2096,7 +2096,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2104,7 +2104,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2120,7 +2120,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2136,7 +2136,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2144,7 +2144,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2152,7 +2152,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2160,7 +2160,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2168,7 +2168,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2176,7 +2176,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2184,7 +2184,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2192,7 +2192,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2200,7 +2200,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2208,7 +2208,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2216,7 +2216,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2224,7 +2224,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2232,7 +2232,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2240,7 +2240,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2248,7 +2248,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2256,7 +2256,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2264,7 +2264,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2272,7 +2272,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2280,7 +2280,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2288,7 +2288,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2296,7 +2296,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2304,7 +2304,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2312,7 +2312,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2320,7 +2320,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2328,7 +2328,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2336,7 +2336,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2344,7 +2344,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2352,7 +2352,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2360,7 +2360,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2368,7 +2368,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2376,7 +2376,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2384,7 +2384,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2392,7 +2392,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2408,7 +2408,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2424,7 +2424,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2432,7 +2432,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2440,7 +2440,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2448,7 +2448,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2456,7 +2456,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2464,7 +2464,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2480,7 +2480,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2488,7 +2488,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2496,7 +2496,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2504,7 +2504,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2512,7 +2512,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2520,7 +2520,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2528,7 +2528,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2536,7 +2536,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2544,7 +2544,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2552,7 +2552,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2560,7 +2560,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2568,7 +2568,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2576,7 +2576,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2584,7 +2584,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2592,7 +2592,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2608,7 +2608,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2616,7 +2616,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2624,7 +2624,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2632,7 +2632,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2640,7 +2640,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2648,7 +2648,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2656,7 +2656,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2664,7 +2664,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2672,7 +2672,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2680,7 +2680,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2688,7 +2688,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2696,7 +2696,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2704,7 +2704,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2712,7 +2712,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2720,7 +2720,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2728,7 +2728,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2736,7 +2736,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2744,7 +2744,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2752,7 +2752,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2760,7 +2760,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2768,7 +2768,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2776,7 +2776,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2784,7 +2784,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2792,7 +2792,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2800,7 +2800,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2808,7 +2808,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2816,7 +2816,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2824,7 +2824,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2832,7 +2832,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2840,7 +2840,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2848,7 +2848,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2864,7 +2864,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2872,7 +2872,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2880,7 +2880,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2888,7 +2888,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2896,7 +2896,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2904,7 +2904,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2920,7 +2920,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2928,7 +2928,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2936,7 +2936,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2952,7 +2952,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2960,7 +2960,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2968,7 +2968,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2976,7 +2976,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2984,7 +2984,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2992,7 +2992,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3000,7 +3000,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3008,7 +3008,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3016,7 +3016,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3024,7 +3024,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3032,7 +3032,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3040,7 +3040,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3048,7 +3048,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3056,7 +3056,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3064,7 +3064,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3072,7 +3072,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3080,7 +3080,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3088,7 +3088,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3104,7 +3104,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3112,7 +3112,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3120,7 +3120,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3128,7 +3128,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3136,7 +3136,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3144,7 +3144,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3152,7 +3152,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3160,7 +3160,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3168,7 +3168,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3176,7 +3176,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3184,7 +3184,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3192,7 +3192,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3200,7 +3200,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3208,7 +3208,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3216,7 +3216,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3224,7 +3224,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3232,7 +3232,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3240,7 +3240,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3256,7 +3256,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3264,7 +3264,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3272,7 +3272,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3280,7 +3280,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3288,7 +3288,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3296,7 +3296,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3304,7 +3304,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3312,7 +3312,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3320,7 +3320,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3328,7 +3328,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3336,7 +3336,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3344,7 +3344,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3352,7 +3352,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3360,7 +3360,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3368,7 +3368,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3376,7 +3376,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3384,7 +3384,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3392,7 +3392,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3400,7 +3400,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3408,7 +3408,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3416,7 +3416,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3424,7 +3424,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3432,7 +3432,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3448,7 +3448,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3456,7 +3456,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3464,7 +3464,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3472,7 +3472,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3488,7 +3488,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3496,7 +3496,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3504,7 +3504,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3512,7 +3512,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3520,7 +3520,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3528,7 +3528,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3536,7 +3536,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3552,7 +3552,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3560,7 +3560,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3568,7 +3568,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3576,7 +3576,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3584,7 +3584,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3592,7 +3592,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3600,7 +3600,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3608,7 +3608,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3616,7 +3616,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3632,7 +3632,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3640,7 +3640,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3648,7 +3648,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3656,7 +3656,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3664,7 +3664,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3680,7 +3680,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3688,7 +3688,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3696,7 +3696,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3704,7 +3704,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3712,7 +3712,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3720,7 +3720,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3728,7 +3728,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3736,7 +3736,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3744,7 +3744,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3752,7 +3752,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3760,7 +3760,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3768,7 +3768,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3776,7 +3776,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3784,7 +3784,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3792,7 +3792,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3800,7 +3800,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3808,7 +3808,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3816,7 +3816,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3824,7 +3824,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3832,7 +3832,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3840,7 +3840,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3848,7 +3848,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3856,7 +3856,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3864,7 +3864,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3872,7 +3872,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3880,7 +3880,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3888,7 +3888,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3896,7 +3896,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3904,7 +3904,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3912,7 +3912,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3920,7 +3920,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3928,7 +3928,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3936,7 +3936,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3944,7 +3944,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3952,7 +3952,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3960,7 +3960,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3968,7 +3968,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3984,7 +3984,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3992,7 +3992,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4000,7 +4000,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4008,7 +4008,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4016,7 +4016,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4024,7 +4024,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4032,7 +4032,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4040,7 +4040,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4048,7 +4048,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4056,7 +4056,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4064,7 +4064,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4072,7 +4072,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4080,7 +4080,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4088,7 +4088,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4096,7 +4096,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4112,7 +4112,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4120,7 +4120,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4128,7 +4128,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4136,7 +4136,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4144,7 +4144,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4152,7 +4152,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4160,7 +4160,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4168,7 +4168,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4176,7 +4176,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4184,7 +4184,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4192,7 +4192,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4200,7 +4200,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4208,7 +4208,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4216,7 +4216,7 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4224,7 +4224,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4248,7 +4248,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4256,7 +4256,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4264,7 +4264,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4272,7 +4272,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4288,7 +4288,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4296,7 +4296,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4304,7 +4304,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4312,7 +4312,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4320,7 +4320,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4328,7 +4328,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4336,7 +4336,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4344,7 +4344,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4352,7 +4352,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4360,7 +4360,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4368,7 +4368,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4376,7 +4376,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4384,7 +4384,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4392,7 +4392,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4408,7 +4408,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4416,7 +4416,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4424,7 +4424,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4432,7 +4432,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4440,7 +4440,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4448,7 +4448,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4456,7 +4456,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4472,7 +4472,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4480,7 +4480,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4488,7 +4488,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4496,7 +4496,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4512,7 +4512,7 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4520,7 +4520,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4528,7 +4528,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4536,7 +4536,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4544,7 +4544,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4552,7 +4552,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4560,7 +4560,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4568,7 +4568,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4576,7 +4576,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4648,7 +4648,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4656,7 +4656,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4664,7 +4664,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4672,7 +4672,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4680,7 +4680,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4688,7 +4688,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4696,7 +4696,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4704,7 +4704,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4720,7 +4720,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4728,7 +4728,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4736,7 +4736,7 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4744,7 +4744,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4752,7 +4752,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4760,7 +4760,7 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4768,7 +4768,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4776,7 +4776,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4784,7 +4784,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4792,7 +4792,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4800,7 +4800,7 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4808,7 +4808,7 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4816,7 +4816,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4824,7 +4824,7 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4832,7 +4832,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4840,7 +4840,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4848,7 +4848,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4856,7 +4856,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4864,7 +4864,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4872,7 +4872,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4880,7 +4880,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4888,7 +4888,7 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4896,7 +4896,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4904,7 +4904,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4920,7 +4920,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4928,7 +4928,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4936,7 +4936,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4944,7 +4944,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4952,7 +4952,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4960,7 +4960,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4968,7 +4968,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4976,7 +4976,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4984,7 +4984,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -4992,7 +4992,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5000,7 +5000,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5008,7 +5008,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5016,7 +5016,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5024,7 +5024,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5032,7 +5032,7 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5040,7 +5040,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5048,7 +5048,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5056,7 +5056,7 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5064,7 +5064,7 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5072,7 +5072,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5080,7 +5080,7 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5088,7 +5088,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5096,7 +5096,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5104,7 +5104,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5112,7 +5112,7 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5120,7 +5120,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5128,7 +5128,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5136,7 +5136,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5144,7 +5144,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5152,7 +5152,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5160,7 +5160,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5168,7 +5168,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5176,7 +5176,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5184,7 +5184,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5192,7 +5192,7 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5200,7 +5200,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5216,7 +5216,7 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5224,7 +5224,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5232,7 +5232,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5256,7 +5256,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5264,7 +5264,7 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5272,7 +5272,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5288,7 +5288,7 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5296,7 +5296,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5304,7 +5304,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5320,7 +5320,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5328,7 +5328,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5336,7 +5336,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5352,7 +5352,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5360,7 +5360,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5368,7 +5368,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5376,7 +5376,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5392,7 +5392,7 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5400,7 +5400,7 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5408,7 +5408,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5416,7 +5416,7 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5424,7 +5424,7 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5432,7 +5432,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5440,7 +5440,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5448,7 +5448,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5456,7 +5456,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5464,7 +5464,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5472,7 +5472,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5488,7 +5488,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5496,7 +5496,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5504,7 +5504,7 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5512,7 +5512,7 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5520,7 +5520,7 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5528,7 +5528,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5536,7 +5536,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5544,7 +5544,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5552,7 +5552,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5560,7 +5560,7 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5568,7 +5568,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5576,7 +5576,7 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5584,7 +5584,7 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5592,7 +5592,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5600,7 +5600,7 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5608,7 +5608,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5624,7 +5624,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5632,7 +5632,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5648,7 +5648,7 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5664,7 +5664,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5672,7 +5672,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5680,7 +5680,7 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5688,7 +5688,7 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5696,7 +5696,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5704,7 +5704,7 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5712,7 +5712,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5720,7 +5720,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5728,7 +5728,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5736,7 +5736,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5744,7 +5744,7 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5760,7 +5760,7 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5768,7 +5768,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5792,7 +5792,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5800,7 +5800,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5808,7 +5808,7 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5816,7 +5816,7 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5824,7 +5824,7 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5832,7 +5832,7 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5840,7 +5840,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5848,7 +5848,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5856,7 +5856,7 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5864,7 +5864,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5872,7 +5872,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5880,7 +5880,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5888,7 +5888,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5896,7 +5896,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5904,7 +5904,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5912,7 +5912,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5920,7 +5920,7 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5928,7 +5928,7 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5936,7 +5936,7 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5944,7 +5944,7 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5952,7 +5952,7 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5960,7 +5960,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5968,7 +5968,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5976,7 +5976,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5984,7 +5984,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -5992,7 +5992,7 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6000,7 +6000,7 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6016,7 +6016,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6024,7 +6024,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6032,7 +6032,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6040,7 +6040,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6048,7 +6048,7 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6056,7 +6056,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6064,7 +6064,7 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6072,7 +6072,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6080,7 +6080,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6088,7 +6088,7 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6096,7 +6096,7 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6104,7 +6104,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6112,7 +6112,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6120,7 +6120,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6128,7 +6128,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6136,7 +6136,7 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6144,7 +6144,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6152,7 +6152,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6176,7 +6176,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6184,7 +6184,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6192,7 +6192,7 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6200,7 +6200,7 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6216,7 +6216,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6224,7 +6224,7 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6232,7 +6232,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6240,7 +6240,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6248,7 +6248,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6256,7 +6256,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6264,7 +6264,7 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6272,7 +6272,7 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6288,7 +6288,7 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6296,7 +6296,7 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6304,7 +6304,7 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6312,7 +6312,7 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6320,7 +6320,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6328,7 +6328,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6336,7 +6336,7 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6344,7 +6344,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6352,7 +6352,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6360,7 +6360,7 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6368,7 +6368,7 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6376,7 +6376,7 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6384,7 +6384,7 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6392,7 +6392,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6400,7 +6400,7 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6408,7 +6408,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6416,7 +6416,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6424,7 +6424,7 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6432,7 +6432,7 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6440,7 +6440,7 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6448,7 +6448,7 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6456,7 +6456,7 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6464,7 +6464,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6472,7 +6472,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6480,7 +6480,7 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6488,7 +6488,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6496,7 +6496,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6512,7 +6512,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6520,7 +6520,7 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6528,7 +6528,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6536,7 +6536,7 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6544,7 +6544,7 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6552,7 +6552,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6560,7 +6560,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6568,7 +6568,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6576,7 +6576,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6584,7 +6584,7 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6592,7 +6592,7 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6608,7 +6608,7 @@
         <v>778</v>
       </c>
       <c r="B780" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6616,7 +6616,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6624,7 +6624,7 @@
         <v>780</v>
       </c>
       <c r="B782" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6632,7 +6632,7 @@
         <v>781</v>
       </c>
       <c r="B783" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6640,7 +6640,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6648,7 +6648,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6656,7 +6656,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6664,7 +6664,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6672,7 +6672,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6680,7 +6680,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6696,7 +6696,7 @@
         <v>789</v>
       </c>
       <c r="B791" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6704,7 +6704,7 @@
         <v>790</v>
       </c>
       <c r="B792" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6712,7 +6712,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6720,7 +6720,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6728,7 +6728,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6736,7 +6736,7 @@
         <v>794</v>
       </c>
       <c r="B796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6744,7 +6744,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6752,7 +6752,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6760,7 +6760,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6768,7 +6768,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6784,7 +6784,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6792,7 +6792,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6800,7 +6800,7 @@
         <v>802</v>
       </c>
       <c r="B804" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6808,7 +6808,7 @@
         <v>803</v>
       </c>
       <c r="B805" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6816,7 +6816,7 @@
         <v>804</v>
       </c>
       <c r="B806" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6824,7 +6824,7 @@
         <v>805</v>
       </c>
       <c r="B807" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6832,7 +6832,7 @@
         <v>806</v>
       </c>
       <c r="B808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6840,7 +6840,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6848,7 +6848,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6856,7 +6856,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6864,7 +6864,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6880,7 +6880,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6888,7 +6888,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6896,7 +6896,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6904,7 +6904,7 @@
         <v>815</v>
       </c>
       <c r="B817" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6912,7 +6912,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6920,7 +6920,7 @@
         <v>817</v>
       </c>
       <c r="B819" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6928,7 +6928,7 @@
         <v>818</v>
       </c>
       <c r="B820" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6936,7 +6936,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6944,7 +6944,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6952,7 +6952,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6960,7 +6960,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6968,7 +6968,7 @@
         <v>823</v>
       </c>
       <c r="B825" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6976,7 +6976,7 @@
         <v>824</v>
       </c>
       <c r="B826" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6984,7 +6984,7 @@
         <v>825</v>
       </c>
       <c r="B827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -6992,7 +6992,7 @@
         <v>826</v>
       </c>
       <c r="B828" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7000,7 +7000,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7008,7 +7008,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7016,7 +7016,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7024,7 +7024,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7032,7 +7032,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7040,7 +7040,7 @@
         <v>832</v>
       </c>
       <c r="B834" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7048,7 +7048,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7056,7 +7056,7 @@
         <v>834</v>
       </c>
       <c r="B836" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7064,7 +7064,7 @@
         <v>835</v>
       </c>
       <c r="B837" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7072,7 +7072,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7080,7 +7080,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7088,7 +7088,7 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7096,7 +7096,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7104,7 +7104,7 @@
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7112,7 +7112,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7120,7 +7120,7 @@
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7128,7 +7128,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7136,7 +7136,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7152,7 +7152,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7160,7 +7160,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7168,7 +7168,7 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7176,7 +7176,7 @@
         <v>849</v>
       </c>
       <c r="B851" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7184,7 +7184,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7192,7 +7192,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7200,7 +7200,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7208,7 +7208,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7216,7 +7216,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7224,7 +7224,7 @@
         <v>855</v>
       </c>
       <c r="B857" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7232,7 +7232,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7240,7 +7240,7 @@
         <v>857</v>
       </c>
       <c r="B859" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7248,7 +7248,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7256,7 +7256,7 @@
         <v>859</v>
       </c>
       <c r="B861" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7264,7 +7264,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7272,7 +7272,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7280,7 +7280,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7288,7 +7288,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7296,7 +7296,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7304,7 +7304,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7312,7 +7312,7 @@
         <v>866</v>
       </c>
       <c r="B868" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7320,7 +7320,7 @@
         <v>867</v>
       </c>
       <c r="B869" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7328,7 +7328,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7336,7 +7336,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7352,7 +7352,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7360,7 +7360,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7368,7 +7368,7 @@
         <v>873</v>
       </c>
       <c r="B875" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7376,7 +7376,7 @@
         <v>874</v>
       </c>
       <c r="B876" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7392,7 +7392,7 @@
         <v>876</v>
       </c>
       <c r="B878" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7400,7 +7400,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7408,7 +7408,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7416,7 +7416,7 @@
         <v>879</v>
       </c>
       <c r="B881" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7424,7 +7424,7 @@
         <v>880</v>
       </c>
       <c r="B882" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7432,7 +7432,7 @@
         <v>881</v>
       </c>
       <c r="B883" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7440,7 +7440,7 @@
         <v>882</v>
       </c>
       <c r="B884" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7448,7 +7448,7 @@
         <v>883</v>
       </c>
       <c r="B885" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7456,7 +7456,7 @@
         <v>884</v>
       </c>
       <c r="B886" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7464,7 +7464,7 @@
         <v>885</v>
       </c>
       <c r="B887" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7480,7 +7480,7 @@
         <v>887</v>
       </c>
       <c r="B889" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7488,7 +7488,7 @@
         <v>888</v>
       </c>
       <c r="B890" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7496,7 +7496,7 @@
         <v>889</v>
       </c>
       <c r="B891" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7504,7 +7504,7 @@
         <v>890</v>
       </c>
       <c r="B892" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7512,7 +7512,7 @@
         <v>891</v>
       </c>
       <c r="B893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7520,7 +7520,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7536,7 +7536,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7544,7 +7544,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7552,7 +7552,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7576,7 +7576,7 @@
         <v>899</v>
       </c>
       <c r="B901" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7584,7 +7584,7 @@
         <v>900</v>
       </c>
       <c r="B902" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7592,7 +7592,7 @@
         <v>901</v>
       </c>
       <c r="B903" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7600,7 +7600,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7608,7 +7608,7 @@
         <v>903</v>
       </c>
       <c r="B905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7616,7 +7616,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7624,7 +7624,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7632,7 +7632,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7640,7 +7640,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7656,7 +7656,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7664,7 +7664,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7672,7 +7672,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7680,7 +7680,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7688,7 +7688,7 @@
         <v>913</v>
       </c>
       <c r="B915" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7696,7 +7696,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7704,7 +7704,7 @@
         <v>915</v>
       </c>
       <c r="B917" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7712,7 +7712,7 @@
         <v>916</v>
       </c>
       <c r="B918" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7720,7 +7720,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7728,7 +7728,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7736,7 +7736,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7744,7 +7744,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7752,7 +7752,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7760,7 +7760,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7768,7 +7768,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7776,7 +7776,7 @@
         <v>924</v>
       </c>
       <c r="B926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7784,7 +7784,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7792,7 +7792,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7800,7 +7800,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7808,7 +7808,7 @@
         <v>928</v>
       </c>
       <c r="B930" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7816,7 +7816,7 @@
         <v>929</v>
       </c>
       <c r="B931" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7824,7 +7824,7 @@
         <v>930</v>
       </c>
       <c r="B932" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7848,7 +7848,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7856,7 +7856,7 @@
         <v>934</v>
       </c>
       <c r="B936" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7872,7 +7872,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7888,7 +7888,7 @@
         <v>938</v>
       </c>
       <c r="B940" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7896,7 +7896,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7912,7 +7912,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7920,7 +7920,7 @@
         <v>942</v>
       </c>
       <c r="B944" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7928,7 +7928,7 @@
         <v>943</v>
       </c>
       <c r="B945" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7936,7 +7936,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7944,7 +7944,7 @@
         <v>945</v>
       </c>
       <c r="B947" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7952,7 +7952,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7960,7 +7960,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7976,7 +7976,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7984,7 +7984,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -7992,7 +7992,7 @@
         <v>951</v>
       </c>
       <c r="B953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8008,7 +8008,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8016,7 +8016,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8024,7 +8024,7 @@
         <v>955</v>
       </c>
       <c r="B957" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8032,7 +8032,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8040,7 +8040,7 @@
         <v>957</v>
       </c>
       <c r="B959" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8048,7 +8048,7 @@
         <v>958</v>
       </c>
       <c r="B960" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8056,7 +8056,7 @@
         <v>959</v>
       </c>
       <c r="B961" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8064,7 +8064,7 @@
         <v>960</v>
       </c>
       <c r="B962" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8072,7 +8072,7 @@
         <v>961</v>
       </c>
       <c r="B963" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8080,7 +8080,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8088,7 +8088,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8104,7 +8104,7 @@
         <v>965</v>
       </c>
       <c r="B967" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8112,7 +8112,7 @@
         <v>966</v>
       </c>
       <c r="B968" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8120,7 +8120,7 @@
         <v>967</v>
       </c>
       <c r="B969" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8128,7 +8128,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8136,7 +8136,7 @@
         <v>969</v>
       </c>
       <c r="B971" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8144,7 +8144,7 @@
         <v>970</v>
       </c>
       <c r="B972" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8152,7 +8152,7 @@
         <v>971</v>
       </c>
       <c r="B973" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8160,7 +8160,7 @@
         <v>972</v>
       </c>
       <c r="B974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8168,7 +8168,7 @@
         <v>973</v>
       </c>
       <c r="B975" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8176,7 +8176,7 @@
         <v>974</v>
       </c>
       <c r="B976" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8184,7 +8184,7 @@
         <v>975</v>
       </c>
       <c r="B977" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8200,7 +8200,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8208,7 +8208,7 @@
         <v>978</v>
       </c>
       <c r="B980" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8216,7 +8216,7 @@
         <v>979</v>
       </c>
       <c r="B981" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8224,7 +8224,7 @@
         <v>980</v>
       </c>
       <c r="B982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8232,7 +8232,7 @@
         <v>981</v>
       </c>
       <c r="B983" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8240,7 +8240,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8248,7 +8248,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8256,7 +8256,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8264,7 +8264,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8272,7 +8272,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8288,7 +8288,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8296,7 +8296,7 @@
         <v>989</v>
       </c>
       <c r="B991" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8304,7 +8304,7 @@
         <v>990</v>
       </c>
       <c r="B992" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8312,7 +8312,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8320,7 +8320,7 @@
         <v>992</v>
       </c>
       <c r="B994" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8328,7 +8328,7 @@
         <v>993</v>
       </c>
       <c r="B995" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8336,7 +8336,7 @@
         <v>994</v>
       </c>
       <c r="B996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8344,7 +8344,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8360,7 +8360,7 @@
         <v>997</v>
       </c>
       <c r="B999" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8368,7 +8368,7 @@
         <v>998</v>
       </c>
       <c r="B1000" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8376,7 +8376,7 @@
         <v>999</v>
       </c>
       <c r="B1001" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
